--- a/import-mall.xlsx
+++ b/import-mall.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsjo\Downloads\programmering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mk.se\Data\Privat\S\samsjo\Documents\programmering\MIST-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118C99CD-DE33-4130-BB0D-B917157E0469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52685B1C-6054-4BAA-8D91-453B78DD0EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1B758DA8-5902-4C62-9F84-3983C313CEC4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Gatuadress</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>Postnummer</t>
-  </si>
-  <si>
-    <t>sms1</t>
-  </si>
-  <si>
-    <t>Smedsås Skogslund 1</t>
-  </si>
-  <si>
-    <t>Samuels Labb</t>
-  </si>
-  <si>
-    <t>samsjo</t>
   </si>
   <si>
     <t>MapURL</t>
@@ -419,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556AD42E-B4DF-41AD-9311-0F88629D53FA}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,24 +439,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>51691</v>
       </c>
     </row>
   </sheetData>
